--- a/evaluation/random_search/batch/tuning.xlsx
+++ b/evaluation/random_search/batch/tuning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\falco\Desktop\NeuralNetwork-library\evaluation\random_search\batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2CE633-0EAE-4FA9-9AF0-FB5F97CEB980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B2C7C5-94C0-4B5D-9BEF-296B4D6D4A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>id</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t>std_acc_val</t>
+  </si>
+  <si>
+    <t>mean_score</t>
+  </si>
+  <si>
+    <t>std_score</t>
   </si>
   <si>
     <t>mean_err_train</t>
@@ -157,7 +163,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -171,7 +177,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -482,39 +487,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:V11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -563,707 +568,777 @@
       <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="W1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>203</v>
-      </c>
-      <c r="B2" s="2">
-        <v>8.0779999999999996E-5</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.6431</v>
-      </c>
-      <c r="D2" s="2">
-        <v>67</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0.95959953801022091</v>
-      </c>
-      <c r="F2" s="4">
-        <v>1.7247929122049071E-2</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0.94381782381040935</v>
-      </c>
-      <c r="H2" s="4">
-        <v>1.361823502121931E-2</v>
-      </c>
-      <c r="I2" s="4">
-        <v>6890.9761619498113</v>
-      </c>
-      <c r="J2" s="4">
-        <v>2805.9755049724008</v>
-      </c>
-      <c r="K2" s="4">
-        <v>2351.8968938532862</v>
-      </c>
-      <c r="L2" s="4">
-        <v>548.04261150397895</v>
-      </c>
-      <c r="M2" s="4">
-        <v>0.95917899125751727</v>
-      </c>
-      <c r="N2" s="4">
-        <v>1.750088145002392E-2</v>
-      </c>
-      <c r="O2" s="4">
-        <v>0.943193479248575</v>
-      </c>
-      <c r="P2" s="4">
-        <v>1.3777176356489829E-2</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>363.4</v>
-      </c>
-      <c r="R2" s="4">
-        <v>171.08781370980219</v>
-      </c>
-      <c r="S2" s="2">
-        <v>1817</v>
-      </c>
-      <c r="T2" s="2">
-        <v>225.49199999999999</v>
-      </c>
-      <c r="U2" s="4">
-        <v>107.71477027780359</v>
-      </c>
-      <c r="V2" s="2">
-        <v>1127.46</v>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>202</v>
+      </c>
+      <c r="B2" s="5">
+        <v>7.1489999999999995E-5</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.72489999999999999</v>
+      </c>
+      <c r="D2" s="5">
+        <v>53</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.9866619129975096</v>
+      </c>
+      <c r="F2" s="6">
+        <v>9.1719912615194821E-4</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0.96404292798326896</v>
+      </c>
+      <c r="H2" s="6">
+        <v>3.4664682842067622E-3</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0.96390018308430014</v>
+      </c>
+      <c r="J2" s="6">
+        <v>4.1222583505906209E-3</v>
+      </c>
+      <c r="K2" s="6">
+        <v>2323.9345624056191</v>
+      </c>
+      <c r="L2" s="6">
+        <v>120.0851656628144</v>
+      </c>
+      <c r="M2" s="6">
+        <v>1661.632142928763</v>
+      </c>
+      <c r="N2" s="6">
+        <v>163.4310111939692</v>
+      </c>
+      <c r="O2" s="6">
+        <v>0.98660586180422905</v>
+      </c>
+      <c r="P2" s="6">
+        <v>9.2530893889371745E-4</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>0.96369470516967071</v>
+      </c>
+      <c r="R2" s="6">
+        <v>3.517180918923168E-3</v>
+      </c>
+      <c r="S2" s="6">
+        <v>499</v>
+      </c>
+      <c r="T2" s="6">
+        <v>0</v>
+      </c>
+      <c r="U2" s="5">
+        <v>2495</v>
+      </c>
+      <c r="V2" s="5">
+        <v>268.09199999999998</v>
+      </c>
+      <c r="W2" s="6">
+        <v>11.976933497352331</v>
+      </c>
+      <c r="X2" s="5">
+        <v>1340.46</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>206</v>
       </c>
       <c r="B3" s="2">
-        <v>8.0779999999999996E-5</v>
+        <v>7.1489999999999995E-5</v>
       </c>
       <c r="C3" s="2">
-        <v>0.74119999999999997</v>
+        <v>0.87729999999999997</v>
       </c>
       <c r="D3" s="2">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="E3" s="4">
-        <v>0.93830035510690135</v>
+        <v>0.97648623930599643</v>
       </c>
       <c r="F3" s="4">
-        <v>2.9137001346499509E-2</v>
+        <v>2.4283699279534811E-2</v>
       </c>
       <c r="G3" s="4">
-        <v>0.92453240128037295</v>
+        <v>0.94941263443646984</v>
       </c>
       <c r="H3" s="4">
-        <v>2.575829673708013E-2</v>
+        <v>1.9765471174422369E-2</v>
       </c>
       <c r="I3" s="4">
-        <v>10615.41948131081</v>
+        <v>0.95092950019443312</v>
       </c>
       <c r="J3" s="4">
-        <v>4966.6330720837796</v>
+        <v>2.0572213402415909E-2</v>
       </c>
       <c r="K3" s="4">
-        <v>3145.6692343157579</v>
+        <v>3774.1279968195922</v>
       </c>
       <c r="L3" s="4">
-        <v>1134.610834111746</v>
+        <v>3499.207509302028</v>
       </c>
       <c r="M3" s="4">
-        <v>0.93751415880867517</v>
+        <v>2402.2481833669308</v>
       </c>
       <c r="N3" s="4">
-        <v>2.956010144307428E-2</v>
+        <v>1008.0765927791811</v>
       </c>
       <c r="O3" s="4">
-        <v>0.92356187820773106</v>
+        <v>0.97622773058029855</v>
       </c>
       <c r="P3" s="4">
-        <v>2.6130865256659461E-2</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>194.6</v>
+        <v>2.467540225254166E-2</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>0.94877519594465787</v>
       </c>
       <c r="R3" s="4">
-        <v>175.95749486736841</v>
-      </c>
-      <c r="S3" s="2">
-        <v>973</v>
-      </c>
-      <c r="T3" s="2">
-        <v>115.84399999999999</v>
-      </c>
-      <c r="U3" s="4">
-        <v>95.082258828868817</v>
+        <v>2.013987089164572E-2</v>
+      </c>
+      <c r="S3" s="4">
+        <v>334.2</v>
+      </c>
+      <c r="T3" s="4">
+        <v>114.8780222670986</v>
+      </c>
+      <c r="U3" s="2">
+        <v>1671</v>
       </c>
       <c r="V3" s="2">
-        <v>579.22</v>
+        <v>179.256</v>
+      </c>
+      <c r="W3" s="4">
+        <v>58.903722327201017</v>
+      </c>
+      <c r="X3" s="2">
+        <v>896.28</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B4" s="2">
-        <v>1.4299000000000001E-4</v>
+        <v>7.1489999999999995E-5</v>
       </c>
       <c r="C4" s="2">
-        <v>0.56720000000000004</v>
+        <v>0.87729999999999997</v>
       </c>
       <c r="D4" s="2">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E4" s="4">
-        <v>0.86117764477151992</v>
+        <v>0.98389495817015571</v>
       </c>
       <c r="F4" s="4">
-        <v>3.993332916781675E-2</v>
+        <v>6.7525814745488053E-3</v>
       </c>
       <c r="G4" s="4">
-        <v>0.85510612737018443</v>
+        <v>0.95458641425726154</v>
       </c>
       <c r="H4" s="4">
-        <v>3.8014967201324572E-2</v>
+        <v>5.9693366330614934E-3</v>
       </c>
       <c r="I4" s="4">
-        <v>22726.431851912679</v>
+        <v>0.95398595998460556</v>
       </c>
       <c r="J4" s="4">
-        <v>5661.7976929036167</v>
+        <v>6.1575713476802914E-3</v>
       </c>
       <c r="K4" s="4">
-        <v>5926.756689259726</v>
+        <v>2719.7414779379392</v>
       </c>
       <c r="L4" s="4">
-        <v>1356.106259477202</v>
+        <v>943.16110132997369</v>
       </c>
       <c r="M4" s="4">
-        <v>0.85683050038187647</v>
+        <v>2201.0069802827702</v>
       </c>
       <c r="N4" s="4">
-        <v>4.228683113730896E-2</v>
+        <v>338.57977059887691</v>
       </c>
       <c r="O4" s="4">
-        <v>0.85074093531383599</v>
+        <v>0.98377629480812556</v>
       </c>
       <c r="P4" s="4">
-        <v>4.0397122216030257E-2</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>64.599999999999994</v>
+        <v>6.8178433350440121E-3</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>0.9541321573504723</v>
       </c>
       <c r="R4" s="4">
-        <v>16.740370366273261</v>
-      </c>
-      <c r="S4" s="2">
-        <v>323</v>
-      </c>
-      <c r="T4" s="2">
-        <v>46.419999999999987</v>
-      </c>
-      <c r="U4" s="4">
-        <v>10.598711242410561</v>
+        <v>6.0035892433854413E-3</v>
+      </c>
+      <c r="S4" s="4">
+        <v>408.4</v>
+      </c>
+      <c r="T4" s="4">
+        <v>39.494809785590817</v>
+      </c>
+      <c r="U4" s="2">
+        <v>2042</v>
       </c>
       <c r="V4" s="2">
-        <v>232.1</v>
-      </c>
+        <v>220.6</v>
+      </c>
+      <c r="W4" s="4">
+        <v>17.909291443270451</v>
+      </c>
+      <c r="X4" s="2">
+        <v>1103</v>
+      </c>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
     </row>
-    <row r="5" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>209</v>
-      </c>
-      <c r="B5" s="6">
-        <v>6.2279999999999993E-5</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0.6522</v>
-      </c>
-      <c r="D5" s="6">
-        <v>68</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0.9807583623282452</v>
-      </c>
-      <c r="F5" s="7">
-        <v>2.347437088667817E-3</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0.96328280029196878</v>
-      </c>
-      <c r="H5" s="7">
-        <v>4.4583675273525691E-3</v>
-      </c>
-      <c r="I5" s="7">
-        <v>3502.2706011913829</v>
-      </c>
-      <c r="J5" s="7">
-        <v>368.49516556937868</v>
-      </c>
-      <c r="K5" s="7">
-        <v>1455.602835961459</v>
-      </c>
-      <c r="L5" s="7">
-        <v>152.22048557463981</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0.98063106608008255</v>
-      </c>
-      <c r="N5" s="7">
-        <v>2.374540172354628E-3</v>
-      </c>
-      <c r="O5" s="7">
-        <v>0.96295069116733711</v>
-      </c>
-      <c r="P5" s="7">
-        <v>4.536708357912248E-3</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>499</v>
-      </c>
-      <c r="R5" s="7">
-        <v>0</v>
-      </c>
-      <c r="S5" s="6">
-        <v>2495</v>
-      </c>
-      <c r="T5" s="6">
-        <v>294.49200000000002</v>
-      </c>
-      <c r="U5" s="7">
-        <v>11.94640431259549</v>
-      </c>
-      <c r="V5" s="6">
-        <v>1472.46</v>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>207</v>
+      </c>
+      <c r="B5" s="2">
+        <v>7.224E-5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.87729999999999997</v>
+      </c>
+      <c r="D5" s="2">
+        <v>56</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.98714747963972083</v>
+      </c>
+      <c r="F5" s="4">
+        <v>5.0028487899572496E-3</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.95867106044283545</v>
+      </c>
+      <c r="H5" s="4">
+        <v>6.5946339328151827E-3</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.95735809499368529</v>
+      </c>
+      <c r="J5" s="4">
+        <v>6.7712885176314996E-3</v>
+      </c>
+      <c r="K5" s="4">
+        <v>2274.8383438172218</v>
+      </c>
+      <c r="L5" s="4">
+        <v>633.69597147155207</v>
+      </c>
+      <c r="M5" s="4">
+        <v>2038.005322242677</v>
+      </c>
+      <c r="N5" s="4">
+        <v>360.1571001719372</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0.98705465819645455</v>
+      </c>
+      <c r="P5" s="4">
+        <v>5.0681738377814254E-3</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>0.95822366185348407</v>
+      </c>
+      <c r="R5" s="4">
+        <v>6.7070827625451204E-3</v>
+      </c>
+      <c r="S5" s="4">
+        <v>397</v>
+      </c>
+      <c r="T5" s="4">
+        <v>29.91320778519081</v>
+      </c>
+      <c r="U5" s="2">
+        <v>1985</v>
+      </c>
+      <c r="V5" s="2">
+        <v>212.53200000000001</v>
+      </c>
+      <c r="W5" s="4">
+        <v>17.017078950278169</v>
+      </c>
+      <c r="X5" s="2">
+        <v>1062.6600000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>201</v>
       </c>
       <c r="B6" s="2">
-        <v>1.4299000000000001E-4</v>
+        <v>1.5332E-4</v>
       </c>
       <c r="C6" s="2">
-        <v>0.6431</v>
+        <v>0.8216</v>
       </c>
       <c r="D6" s="2">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E6" s="4">
-        <v>0.76760295078622187</v>
+        <v>0.73488985418932917</v>
       </c>
       <c r="F6" s="4">
-        <v>0.17353734270657131</v>
+        <v>0.17267279282400011</v>
       </c>
       <c r="G6" s="4">
-        <v>0.75933790519164202</v>
+        <v>0.72694141800222289</v>
       </c>
       <c r="H6" s="4">
-        <v>0.17153226151049039</v>
+        <v>0.1701929597867122</v>
       </c>
       <c r="I6" s="4">
-        <v>32817.935511502394</v>
+        <v>0.725189825998243</v>
       </c>
       <c r="J6" s="4">
-        <v>18957.717480481238</v>
+        <v>0.16727558510812479</v>
       </c>
       <c r="K6" s="4">
-        <v>8431.7047203351249</v>
+        <v>30133.27536708636</v>
       </c>
       <c r="L6" s="4">
-        <v>4582.6542646159915</v>
+        <v>14536.56595810225</v>
       </c>
       <c r="M6" s="4">
-        <v>0.74730320329010624</v>
+        <v>10405.767654912461</v>
       </c>
       <c r="N6" s="4">
-        <v>0.2070493583111491</v>
+        <v>4703.3131714463907</v>
       </c>
       <c r="O6" s="4">
-        <v>0.73888682923979976</v>
+        <v>0.70091722608799123</v>
       </c>
       <c r="P6" s="4">
-        <v>0.20473271987963379</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>89</v>
+        <v>0.20826852452698211</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>0.69278203607290145</v>
       </c>
       <c r="R6" s="4">
-        <v>67.210118285865263</v>
-      </c>
-      <c r="S6" s="2">
-        <v>445</v>
-      </c>
-      <c r="T6" s="2">
-        <v>60.996000000000002</v>
-      </c>
-      <c r="U6" s="4">
-        <v>39.910435527565973</v>
+        <v>0.20588043439895179</v>
+      </c>
+      <c r="S6" s="4">
+        <v>65.8</v>
+      </c>
+      <c r="T6" s="4">
+        <v>38.561120315675481</v>
+      </c>
+      <c r="U6" s="2">
+        <v>329</v>
       </c>
       <c r="V6" s="2">
-        <v>304.98</v>
+        <v>43.304000000000002</v>
+      </c>
+      <c r="W6" s="4">
+        <v>18.765312254263179</v>
+      </c>
+      <c r="X6" s="2">
+        <v>216.52</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B7" s="2">
-        <v>1.5466000000000001E-4</v>
+        <v>7.224E-5</v>
       </c>
       <c r="C7" s="2">
-        <v>0.85919999999999996</v>
+        <v>0.72489999999999999</v>
       </c>
       <c r="D7" s="2">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E7" s="4">
-        <v>0.5783396312289858</v>
+        <v>0.98215726645403456</v>
       </c>
       <c r="F7" s="4">
-        <v>0.20426770263065511</v>
+        <v>3.0342489173944358E-3</v>
       </c>
       <c r="G7" s="4">
-        <v>0.57405792726181748</v>
+        <v>0.95980011649150865</v>
       </c>
       <c r="H7" s="4">
-        <v>0.19837838926779111</v>
+        <v>3.9621927287878129E-3</v>
       </c>
       <c r="I7" s="4">
-        <v>51715.778058499207</v>
+        <v>0.95911448996090554</v>
       </c>
       <c r="J7" s="4">
-        <v>22872.578940390111</v>
+        <v>4.4837660071639588E-3</v>
       </c>
       <c r="K7" s="4">
-        <v>13203.580790828501</v>
+        <v>2823.038315228825</v>
       </c>
       <c r="L7" s="4">
-        <v>5484.6499678959062</v>
+        <v>380.68367798985003</v>
       </c>
       <c r="M7" s="4">
-        <v>0.51915448269294173</v>
+        <v>1890.196057986213</v>
       </c>
       <c r="N7" s="4">
-        <v>0.22996687605139049</v>
+        <v>177.21751564131091</v>
       </c>
       <c r="O7" s="4">
-        <v>0.51441940481225401</v>
+        <v>0.98205486435388223</v>
       </c>
       <c r="P7" s="4">
-        <v>0.2233514605446513</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>67.400000000000006</v>
+        <v>3.0560348930280239E-3</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>0.9593901278022221</v>
       </c>
       <c r="R7" s="4">
-        <v>15.160474926597781</v>
-      </c>
-      <c r="S7" s="2">
-        <v>337</v>
-      </c>
-      <c r="T7" s="2">
-        <v>50.165999999999997</v>
-      </c>
-      <c r="U7" s="4">
-        <v>9.2232068175879025</v>
+        <v>3.9749544891648407E-3</v>
+      </c>
+      <c r="S7" s="4">
+        <v>499</v>
+      </c>
+      <c r="T7" s="4">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2">
+        <v>2495</v>
       </c>
       <c r="V7" s="2">
-        <v>250.83</v>
+        <v>256.93599999999998</v>
+      </c>
+      <c r="W7" s="4">
+        <v>1.408823622743459</v>
+      </c>
+      <c r="X7" s="2">
+        <v>1284.68</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B8" s="2">
-        <v>1.4299000000000001E-4</v>
+        <v>7.224E-5</v>
       </c>
       <c r="C8" s="2">
-        <v>0.6522</v>
+        <v>0.8216</v>
       </c>
       <c r="D8" s="2">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E8" s="4">
-        <v>0.81985494980506779</v>
+        <v>0.98232872732936793</v>
       </c>
       <c r="F8" s="4">
-        <v>0.1137796564465795</v>
+        <v>6.2293603988660294E-3</v>
       </c>
       <c r="G8" s="4">
-        <v>0.81318036472998423</v>
+        <v>0.95541351134135044</v>
       </c>
       <c r="H8" s="4">
-        <v>0.10828438116532869</v>
+        <v>7.724321615322511E-3</v>
       </c>
       <c r="I8" s="4">
-        <v>26691.717860926321</v>
+        <v>0.95488645423461216</v>
       </c>
       <c r="J8" s="4">
-        <v>12735.955792182411</v>
+        <v>9.3705757989597308E-3</v>
       </c>
       <c r="K8" s="4">
-        <v>6889.8056977466531</v>
+        <v>2894.964984244586</v>
       </c>
       <c r="L8" s="4">
-        <v>2972.6666451150541</v>
+        <v>840.34228740358924</v>
       </c>
       <c r="M8" s="4">
-        <v>0.80555701422997628</v>
+        <v>2151.2670957738269</v>
       </c>
       <c r="N8" s="4">
-        <v>0.1332484664623845</v>
+        <v>382.61262346823167</v>
       </c>
       <c r="O8" s="4">
-        <v>0.79876874959511812</v>
+        <v>0.98220878123941413</v>
       </c>
       <c r="P8" s="4">
-        <v>0.1274540818551094</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>62.8</v>
+        <v>6.3160102724205717E-3</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>0.95495264485443698</v>
       </c>
       <c r="R8" s="4">
-        <v>30.746707140765501</v>
-      </c>
-      <c r="S8" s="2">
-        <v>314</v>
-      </c>
-      <c r="T8" s="2">
-        <v>49.933999999999997</v>
-      </c>
-      <c r="U8" s="4">
-        <v>19.347147179881581</v>
+        <v>7.8485487818315443E-3</v>
+      </c>
+      <c r="S8" s="4">
+        <v>489.8</v>
+      </c>
+      <c r="T8" s="4">
+        <v>11.702991070662231</v>
+      </c>
+      <c r="U8" s="2">
+        <v>2449</v>
       </c>
       <c r="V8" s="2">
-        <v>249.67</v>
+        <v>307.41800000000001</v>
+      </c>
+      <c r="W8" s="4">
+        <v>29.780284350556499</v>
+      </c>
+      <c r="X8" s="2">
+        <v>1537.09</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B9" s="2">
-        <v>1.1302999999999999E-4</v>
+        <v>7.1489999999999995E-5</v>
       </c>
       <c r="C9" s="2">
-        <v>0.74119999999999997</v>
+        <v>0.58089999999999997</v>
       </c>
       <c r="D9" s="2">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E9" s="4">
-        <v>0.75474863139214821</v>
+        <v>0.97632385292141155</v>
       </c>
       <c r="F9" s="4">
-        <v>0.20904892052664881</v>
+        <v>1.4986022343294379E-3</v>
       </c>
       <c r="G9" s="4">
-        <v>0.75073934115308472</v>
+        <v>0.95838594402992583</v>
       </c>
       <c r="H9" s="4">
-        <v>0.2081032969160716</v>
+        <v>4.0545410832711209E-3</v>
       </c>
       <c r="I9" s="4">
-        <v>32210.617630748518</v>
+        <v>0.95830021445724933</v>
       </c>
       <c r="J9" s="4">
-        <v>20585.540402002349</v>
+        <v>3.7226556598052569E-3</v>
       </c>
       <c r="K9" s="4">
-        <v>8201.5768222841525</v>
+        <v>3635.240354071871</v>
       </c>
       <c r="L9" s="4">
-        <v>5142.1826857922333</v>
+        <v>260.7837563891232</v>
       </c>
       <c r="M9" s="4">
-        <v>0.72479464287516859</v>
+        <v>1950.9053033857399</v>
       </c>
       <c r="N9" s="4">
-        <v>0.25220990158527068</v>
+        <v>194.480530308353</v>
       </c>
       <c r="O9" s="4">
-        <v>0.72016341114626159</v>
+        <v>0.97614440437052319</v>
       </c>
       <c r="P9" s="4">
-        <v>0.25131794015865722</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>76</v>
+        <v>1.513501134231348E-3</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>0.95796619386585602</v>
       </c>
       <c r="R9" s="4">
-        <v>51.834351544125639</v>
-      </c>
-      <c r="S9" s="2">
-        <v>380</v>
-      </c>
-      <c r="T9" s="2">
-        <v>66.349999999999994</v>
-      </c>
-      <c r="U9" s="4">
-        <v>36.929076890710391</v>
+        <v>4.1028163189258506E-3</v>
+      </c>
+      <c r="S9" s="4">
+        <v>499</v>
+      </c>
+      <c r="T9" s="4">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2">
+        <v>2495</v>
       </c>
       <c r="V9" s="2">
-        <v>331.75</v>
+        <v>291.97399999999999</v>
+      </c>
+      <c r="W9" s="4">
+        <v>2.6996784993772982</v>
+      </c>
+      <c r="X9" s="2">
+        <v>1459.87</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
+        <v>203</v>
+      </c>
+      <c r="B10" s="2">
+        <v>7.224E-5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.87729999999999997</v>
+      </c>
+      <c r="D10" s="2">
+        <v>86</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.95351172705062992</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2.1697770371004461E-2</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.93308396395489557</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1.1221344444274689E-2</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.93128348356897239</v>
+      </c>
+      <c r="J10" s="4">
+        <v>1.7335306341902671E-2</v>
+      </c>
+      <c r="K10" s="4">
+        <v>7095.3797848434424</v>
+      </c>
+      <c r="L10" s="4">
+        <v>3327.2529861420812</v>
+      </c>
+      <c r="M10" s="4">
+        <v>3341.4797782667451</v>
+      </c>
+      <c r="N10" s="4">
+        <v>586.41146563390737</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0.95293306813230205</v>
+      </c>
+      <c r="P10" s="4">
+        <v>2.2000353855829852E-2</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>0.93210701342701818</v>
+      </c>
+      <c r="R10" s="4">
+        <v>1.1523238679693879E-2</v>
+      </c>
+      <c r="S10" s="4">
+        <v>258</v>
+      </c>
+      <c r="T10" s="4">
+        <v>111.8606275684166</v>
+      </c>
+      <c r="U10" s="2">
+        <v>1290</v>
+      </c>
+      <c r="V10" s="2">
+        <v>198.63</v>
+      </c>
+      <c r="W10" s="4">
+        <v>81.096837176304248</v>
+      </c>
+      <c r="X10" s="2">
+        <v>993.15000000000009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>204</v>
       </c>
-      <c r="B10" s="2">
-        <v>6.2279999999999993E-5</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.74119999999999997</v>
-      </c>
-      <c r="D10" s="2">
-        <v>83</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0.96914559203005202</v>
-      </c>
-      <c r="F10" s="4">
-        <v>6.4523105774975179E-3</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0.94890092523128122</v>
-      </c>
-      <c r="H10" s="4">
-        <v>7.0525244861431207E-3</v>
-      </c>
-      <c r="I10" s="4">
-        <v>5339.7625656831124</v>
-      </c>
-      <c r="J10" s="4">
-        <v>1005.972761862183</v>
-      </c>
-      <c r="K10" s="4">
-        <v>2091.7988802942932</v>
-      </c>
-      <c r="L10" s="4">
-        <v>270.53315898311871</v>
-      </c>
-      <c r="M10" s="4">
-        <v>0.96884625575273497</v>
-      </c>
-      <c r="N10" s="4">
-        <v>6.5507051928764262E-3</v>
-      </c>
-      <c r="O10" s="4">
-        <v>0.94830837298560144</v>
-      </c>
-      <c r="P10" s="4">
-        <v>7.1686817026089429E-3</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>497.6</v>
-      </c>
-      <c r="R10" s="4">
-        <v>2.8</v>
-      </c>
-      <c r="S10" s="2">
-        <v>2488</v>
-      </c>
-      <c r="T10" s="2">
-        <v>396.52199999999999</v>
-      </c>
-      <c r="U10" s="4">
-        <v>28.841821995151399</v>
-      </c>
-      <c r="V10" s="2">
-        <v>1982.61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>207</v>
-      </c>
       <c r="B11" s="2">
-        <v>1.5466000000000001E-4</v>
+        <v>7.224E-5</v>
       </c>
       <c r="C11" s="2">
-        <v>0.74119999999999997</v>
+        <v>0.85270000000000001</v>
       </c>
       <c r="D11" s="2">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E11" s="4">
-        <v>0.67178878865620584</v>
+        <v>0.96697790469746359</v>
       </c>
       <c r="F11" s="4">
-        <v>9.946411322033856E-2</v>
+        <v>2.014534135276675E-2</v>
       </c>
       <c r="G11" s="4">
-        <v>0.66809576007653493</v>
+        <v>0.94102643794874274</v>
       </c>
       <c r="H11" s="4">
-        <v>0.1013693778943308</v>
+        <v>1.176307799507301E-2</v>
       </c>
       <c r="I11" s="4">
-        <v>42284.700156549108</v>
+        <v>0.94022750552802259</v>
       </c>
       <c r="J11" s="4">
-        <v>9365.6128781048137</v>
+        <v>1.6108506274419111E-2</v>
       </c>
       <c r="K11" s="4">
-        <v>10729.100479300199</v>
+        <v>5038.7114001314594</v>
       </c>
       <c r="L11" s="4">
-        <v>2450.352248751642</v>
+        <v>2905.6235883551822</v>
       </c>
       <c r="M11" s="4">
-        <v>0.62958162090132275</v>
+        <v>2859.8821830516708</v>
       </c>
       <c r="N11" s="4">
-        <v>0.1161753018480495</v>
+        <v>559.03628307960651</v>
       </c>
       <c r="O11" s="4">
-        <v>0.62530088575972886</v>
+        <v>0.96658685908244324</v>
       </c>
       <c r="P11" s="4">
-        <v>0.1180845919567813</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>51.8</v>
+        <v>2.0491852704271191E-2</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>0.94026418594826444</v>
       </c>
       <c r="R11" s="4">
-        <v>13.302631318652709</v>
-      </c>
-      <c r="S11" s="2">
-        <v>259</v>
-      </c>
-      <c r="T11" s="2">
-        <v>47.648000000000003</v>
-      </c>
-      <c r="U11" s="4">
-        <v>9.1880365693656216</v>
+        <v>1.209705652886181E-2</v>
+      </c>
+      <c r="S11" s="4">
+        <v>406</v>
+      </c>
+      <c r="T11" s="4">
+        <v>139.20344823315261</v>
+      </c>
+      <c r="U11" s="2">
+        <v>2030</v>
       </c>
       <c r="V11" s="2">
-        <v>238.24</v>
+        <v>309.61399999999998</v>
+      </c>
+      <c r="W11" s="4">
+        <v>97.988864183640786</v>
+      </c>
+      <c r="X11" s="2">
+        <v>1548.07</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V11">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X11">
     <sortCondition ref="D1:D11"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
